--- a/scrapers/scraped-data/Troféu Königswinkel ILCA 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/Troféu Königswinkel ILCA 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
